--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value672.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value672.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.707208614487316</v>
+        <v>2.019246339797974</v>
       </c>
       <c r="B1">
-        <v>1.764655287849881</v>
+        <v>2.401487588882446</v>
       </c>
       <c r="C1">
-        <v>1.991941421297553</v>
+        <v>2.489301204681396</v>
       </c>
       <c r="D1">
-        <v>3.105362149931603</v>
+        <v>3.192335367202759</v>
       </c>
       <c r="E1">
-        <v>2.085012715376173</v>
+        <v>1.321567058563232</v>
       </c>
     </row>
   </sheetData>
